--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Codes for key process timing metrics in acute stroke care (D2N, D2G).</t>
+    <t>This CodeSystem defines codes for key time-interval process metrics in acute stroke care used for quality monitoring and pathway optimization. Each code represents a duration measured in minutes between two clinically meaningful events (e.g., hospital arrival to thrombolysis start).
+These metrics are commonly used in performance dashboards, registry submissions, and quality improvement programs. The intent is to store the *measured interval* (a duration) in Observation.valueQuantity (UCUM minutes), while event timestamps (arrival time, needle time, groin puncture time) may be stored separately when available.
+Implementation note: Exact operational definitions can vary by institution (e.g., “needle time” as alteplase bolus vs infusion start; “door time” as ED arrival vs triage time). Implementers should align local measurement definitions and document them (e.g., in metadata, profiles, or implementation guidance) to ensure comparability across sites.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -141,7 +143,7 @@
     <t>Door to Groin</t>
   </si>
   <si>
-    <t>Time (in minutes) from hospital arrival to the groin puncture for mechanical thrombectomy</t>
+    <t>Elapsed time (minutes) from documented hospital arrival (‘door’) to arterial groin puncture for mechanical thrombectomy (first puncture attempt).</t>
   </si>
   <si>
     <t>D2N</t>
@@ -150,7 +152,7 @@
     <t>Door to Needle</t>
   </si>
   <si>
-    <t>Time (in minutes) from the patient’s arrival at the hospital to the start of intravenous thrombolysis</t>
+    <t>Elapsed time (minutes) from documented hospital arrival (‘door’) to initiation of intravenous thrombolysis (commonly alteplase/tenecteplase administration start, per local definition).</t>
   </si>
 </sst>
 </file>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Stroke Timing Metric Codes ValueSet</t>
+    <t>Stroke Timing Metric Codes CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,8 +82,7 @@
   </si>
   <si>
     <t>This CodeSystem defines codes for key time-interval process metrics in acute stroke care used for quality monitoring and pathway optimization. Each code represents a duration measured in minutes between two clinically meaningful events (e.g., hospital arrival to thrombolysis start).
-These metrics are commonly used in performance dashboards, registry submissions, and quality improvement programs. The intent is to store the *measured interval* (a duration) in Observation.valueQuantity (UCUM minutes), while event timestamps (arrival time, needle time, groin puncture time) may be stored separately when available.
-Implementation note: Exact operational definitions can vary by institution (e.g., “needle time” as alteplase bolus vs infusion start; “door time” as ED arrival vs triage time). Implementers should align local measurement definitions and document them (e.g., in metadata, profiles, or implementation guidance) to ensure comparability across sites.</t>
+These metrics are commonly used in performance dashboards, registry submissions, and quality improvement programs. The intent is to store the *measured interval* (a duration) in Observation.valueQuantity (UCUM minutes), while event timestamps (arrival time, needle time, groin puncture time) may be stored separately when available.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,8 +81,11 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This CodeSystem defines codes for key time-interval process metrics in acute stroke care used for quality monitoring and pathway optimization. Each code represents a duration measured in minutes between two clinically meaningful events (e.g., hospital arrival to thrombolysis start).
-These metrics are commonly used in performance dashboards, registry submissions, and quality improvement programs. The intent is to store the *measured interval* (a duration) in Observation.valueQuantity (UCUM minutes), while event timestamps (arrival time, needle time, groin puncture time) may be stored separately when available.</t>
+    <t>This CodeSystem defines codes for key **time-interval process metrics** in acute stroke care.
+Each code represents a duration measured between two clinically meaningful events (e.g., arrival to thrombolysis start).
+**Primary use-case**
+- Use as `Observation.code` in `TimingMetricObservationProfile`.
+- Store the measured interval in `Observation.valueQuantity` with UCUM minutes (`min`).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-timing-metric-codes-cs.xlsx
+++ b/CodeSystem-timing-metric-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
